--- a/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 0,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 3,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 3,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 0,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 3,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; -0,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,06%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,84; 24,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,39; 4,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,72; 147,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 65,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,06; 11,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 63,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,09; 37,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,62; 1,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,46; 74,26</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 0,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 0,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 0,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 0,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 0,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; -0,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,13; 31,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,28; 41,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,27; 92,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,75; 37,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,46; 6,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,02; 17,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,52; 17,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,07; -0,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,71; 25,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 0,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; -0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 0,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 3,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 1,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 1,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,09%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,24; 38,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,61; -13,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,77; 23,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; 206,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,73; 137,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,1; 134,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,85; 81,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,59; 45,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,37; 48,57</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; -0,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; -0,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; -0,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; -0,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 0,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,76%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,62; -9,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,0; -17,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,45; 32,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,14; 38,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,55; -2,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; 14,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,09; 16,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,52; -13,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,13; 15,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,62</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,25</t>
+          <t>-0,64; 3,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,66</t>
+          <t>-0,39; 3,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,25</t>
+          <t>0,21; 3,23</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>31,82%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 147,79</t>
+          <t>-18,49; 156,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 63,73</t>
+          <t>-5,05; 64,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 74,26</t>
+          <t>3,52; 72,73</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,97</t>
+          <t>-0,77; 0,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,68</t>
+          <t>-2,44; 0,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,61</t>
+          <t>-1,16; 0,45</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>-17,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-11,46%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 92,09</t>
+          <t>-41,36; 75,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 17,4</t>
+          <t>-44,19; 11,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 25,54</t>
+          <t>-33,45; 17,12</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,31</t>
+          <t>-3,64; 0,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,15</t>
+          <t>-1,06; 3,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,23</t>
+          <t>-1,77; 1,28</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-44,95%</t>
+          <t>-44,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-4,03%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,77; 23,73</t>
+          <t>-76,72; 23,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 134,32</t>
+          <t>-24,97; 138,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 48,57</t>
+          <t>-38,89; 50,39</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,6</t>
+          <t>-1,01; 0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,71</t>
+          <t>-1,56; 0,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,52</t>
+          <t>-1,02; 0,36</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-8,1%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 32,25</t>
+          <t>-39,27; 23,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 14,24</t>
+          <t>-26,73; 12,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 15,08</t>
+          <t>-24,65; 10,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,28</t>
+          <t>-2,67; 0,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,05</t>
+          <t>-2,9; -0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,41</t>
+          <t>-0,29; 3,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,8</t>
+          <t>-0,83; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,65</t>
+          <t>-3,38; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,62</t>
+          <t>-0,42; 3,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,65</t>
+          <t>-0,92; 1,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; -0,03</t>
+          <t>-2,53; -0,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,23</t>
+          <t>0,23; 3,06</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 24,1</t>
+          <t>-72,32; 11,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 4,44</t>
+          <t>-74,32; 0,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 156,47</t>
+          <t>-10,23; 163,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 65,82</t>
+          <t>-10,28; 59,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 11,63</t>
+          <t>-44,85; 12,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 64,3</t>
+          <t>-5,33; 64,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 37,13</t>
+          <t>-16,97; 37,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 1,1</t>
+          <t>-45,77; -2,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 72,73</t>
+          <t>2,44; 65,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,31</t>
+          <t>-1,19; 0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,4</t>
+          <t>-1,11; 0,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,82</t>
+          <t>-0,8; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,41</t>
+          <t>-1,57; 1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,22</t>
+          <t>-2,63; -0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,49</t>
+          <t>-2,39; 0,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,44</t>
+          <t>-1,08; 0,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; -0,01</t>
+          <t>-1,53; 0,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,45</t>
+          <t>-1,15; 0,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,13; 31,09</t>
+          <t>-60,68; 37,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 41,08</t>
+          <t>-57,61; 44,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 75,76</t>
+          <t>-42,68; 87,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 37,11</t>
+          <t>-29,59; 35,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 6,4</t>
+          <t>-47,1; 0,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 11,95</t>
+          <t>-43,63; 16,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 17,23</t>
+          <t>-32,23; 20,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,07; -0,18</t>
+          <t>-44,63; 1,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 17,12</t>
+          <t>-34,3; 17,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,46</t>
+          <t>-3,91; 0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; -0,62</t>
+          <t>-4,48; -0,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,34</t>
+          <t>-3,58; 0,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 5,08</t>
+          <t>-0,61; 5,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,45</t>
+          <t>-1,6; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,31</t>
+          <t>-1,39; 3,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,12</t>
+          <t>-1,59; 2,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,15</t>
+          <t>-2,19; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,28</t>
+          <t>-1,79; 1,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,24; 38,86</t>
+          <t>-85,07; 31,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,61; -13,93</t>
+          <t>-90,11; -14,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,72; 23,5</t>
+          <t>-76,56; 31,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 206,52</t>
+          <t>-15,35; 211,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 137,36</t>
+          <t>-31,64; 144,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 138,66</t>
+          <t>-29,19; 135,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 81,24</t>
+          <t>-37,74; 73,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 45,89</t>
+          <t>-50,14; 38,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 50,39</t>
+          <t>-39,08; 47,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; -0,19</t>
+          <t>-1,51; -0,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,36</t>
+          <t>-1,64; -0,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,47</t>
+          <t>-1,02; 0,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,84</t>
+          <t>-0,39; 1,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,18</t>
+          <t>-2,1; -0,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,62</t>
+          <t>-1,57; 0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,57</t>
+          <t>-0,76; 0,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; -0,49</t>
+          <t>-1,66; -0,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,36</t>
+          <t>-1,02; 0,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,62; -9,65</t>
+          <t>-59,2; -9,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,0; -17,43</t>
+          <t>-61,93; -16,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 23,79</t>
+          <t>-39,12; 24,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 38,1</t>
+          <t>-7,09; 40,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,55; -2,32</t>
+          <t>-35,78; -1,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 12,23</t>
+          <t>-26,32; 13,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 16,62</t>
+          <t>-18,61; 17,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -13,81</t>
+          <t>-40,72; -11,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 10,25</t>
+          <t>-24,57; 11,3</t>
         </is>
       </c>
     </row>
